--- a/site1/static/kmeans_results.xlsx
+++ b/site1/static/kmeans_results.xlsx
@@ -579,7 +579,7 @@
         <v>-0.5594056477165814</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -661,7 +661,7 @@
         <v>-1.06507465229449</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -702,7 +702,7 @@
         <v>-2.359562517677021</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -743,7 +743,7 @@
         <v>1.055422019122012</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -784,7 +784,7 @@
         <v>-0.6263389642392312</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -825,7 +825,7 @@
         <v>1.389806652890056</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -866,7 +866,7 @@
         <v>-0.8625654433601332</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -948,7 +948,7 @@
         <v>0.6088438744104989</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1071,7 +1071,7 @@
         <v>-1.227239167610972</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1112,7 +1112,7 @@
         <v>1.193808494648085</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1.292107705451806</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>-2.083788508039146</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1235,7 +1235,7 @@
         <v>1.577011132485443</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1276,7 +1276,7 @@
         <v>-1.366996191096569</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1317,7 +1317,7 @@
         <v>-0.7220287368672882</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1358,7 +1358,7 @@
         <v>-1.84067164618434</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1399,7 +1399,7 @@
         <v>2.045196041441718</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1481,7 +1481,7 @@
         <v>0.876609509308986</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1522,7 +1522,7 @@
         <v>1.700980941082111</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1563,7 +1563,7 @@
         <v>1.444670082806407</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1645,7 +1645,7 @@
         <v>-0.9511918060860231</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1686,7 +1686,7 @@
         <v>2.833047792229766</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1727,7 +1727,7 @@
         <v>1.165557566059674</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1768,7 +1768,7 @@
         <v>1.206474270750309</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1809,7 +1809,7 @@
         <v>-1.165972337492799</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1891,7 +1891,7 @@
         <v>1.251554956387796</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1932,7 +1932,7 @@
         <v>1.456769110958817</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1973,7 +1973,7 @@
         <v>-0.9201483749791861</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -2055,7 +2055,7 @@
         <v>1.214375666267317</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2096,7 +2096,7 @@
         <v>-0.9955124339268521</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2137,7 +2137,7 @@
         <v>-0.513400900776492</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2178,7 +2178,7 @@
         <v>-0.4520946968256465</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2260,7 +2260,7 @@
         <v>1.751574471086866</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2301,7 +2301,7 @@
         <v>1.127005683972806</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2465,7 +2465,7 @@
         <v>-0.9488879794065628</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2506,7 +2506,7 @@
         <v>0.3446359631288281</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2547,7 +2547,7 @@
         <v>1.514921888794711</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2588,7 +2588,7 @@
         <v>-0.5089753744186775</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2629,7 +2629,7 @@
         <v>-0.5224463910969355</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2670,7 +2670,7 @@
         <v>0.2482789968881448</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2711,7 +2711,7 @@
         <v>1.099296400973904</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -2752,7 +2752,7 @@
         <v>-0.7572606590300542</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -2793,7 +2793,7 @@
         <v>-0.4022626283169963</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2834,7 +2834,7 @@
         <v>0.004657361131925367</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -2875,7 +2875,7 @@
         <v>-2.69236311880116</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -2957,7 +2957,7 @@
         <v>-2.148484934014689</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2998,7 +2998,7 @@
         <v>0.533320165539106</v>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -3080,7 +3080,7 @@
         <v>0.8952193119404424</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -3121,7 +3121,7 @@
         <v>-1.259540089955231</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3162,7 +3162,7 @@
         <v>1.990357398101633</v>
       </c>
       <c r="M66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3203,7 +3203,7 @@
         <v>0.2440300081900817</v>
       </c>
       <c r="M67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3244,7 +3244,7 @@
         <v>-0.4015980430457416</v>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3285,7 +3285,7 @@
         <v>0.8992665584970521</v>
       </c>
       <c r="M69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3326,7 +3326,7 @@
         <v>-0.273053766563353</v>
       </c>
       <c r="M70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3367,7 +3367,7 @@
         <v>-0.2709366283556185</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -3408,7 +3408,7 @@
         <v>-0.6350084452502507</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3449,7 +3449,7 @@
         <v>-0.6887269119866314</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -3531,7 +3531,7 @@
         <v>-1.016257459750329</v>
       </c>
       <c r="M75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3572,7 +3572,7 @@
         <v>-1.16024464537916</v>
       </c>
       <c r="M76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3613,7 +3613,7 @@
         <v>-0.8496773510986649</v>
       </c>
       <c r="M77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3654,7 +3654,7 @@
         <v>1.428303552130487</v>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3695,7 +3695,7 @@
         <v>-0.4889244695350284</v>
       </c>
       <c r="M79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3736,7 +3736,7 @@
         <v>-0.222878207045807</v>
       </c>
       <c r="M80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3777,7 +3777,7 @@
         <v>-0.3766616445833015</v>
       </c>
       <c r="M81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3818,7 +3818,7 @@
         <v>0.05052856158933378</v>
       </c>
       <c r="M82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3859,7 +3859,7 @@
         <v>0.6556382441847534</v>
       </c>
       <c r="M83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3900,7 +3900,7 @@
         <v>0.2030853346645455</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -3941,7 +3941,7 @@
         <v>-0.9370302605404146</v>
       </c>
       <c r="M85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4023,7 +4023,7 @@
         <v>-1.214391064722024</v>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -4064,7 +4064,7 @@
         <v>1.153993532027569</v>
       </c>
       <c r="M88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4105,7 +4105,7 @@
         <v>-0.9898582856237511</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -4146,7 +4146,7 @@
         <v>2.065519876945169</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4187,7 +4187,7 @@
         <v>-0.4240034837087764</v>
       </c>
       <c r="M91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -4228,7 +4228,7 @@
         <v>0.01072862970274431</v>
       </c>
       <c r="M92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -4269,7 +4269,7 @@
         <v>-0.1482603457182366</v>
       </c>
       <c r="M93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -4392,7 +4392,7 @@
         <v>-0.7018832483833477</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -4433,7 +4433,7 @@
         <v>0.03173396868882603</v>
       </c>
       <c r="M97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -4474,7 +4474,7 @@
         <v>-0.6973738289087452</v>
       </c>
       <c r="M98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -4515,7 +4515,7 @@
         <v>-0.7974526893830005</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -4556,7 +4556,7 @@
         <v>-0.4377988933048376</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -4597,7 +4597,7 @@
         <v>-1.967014310980183</v>
       </c>
       <c r="M101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -4761,7 +4761,7 @@
         <v>-0.6526531677554488</v>
       </c>
       <c r="M105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -4802,7 +4802,7 @@
         <v>-0.4243179241489281</v>
       </c>
       <c r="M106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -4843,7 +4843,7 @@
         <v>-1.677430907815045</v>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -4884,7 +4884,7 @@
         <v>0.4299391010457548</v>
       </c>
       <c r="M108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -4925,7 +4925,7 @@
         <v>-0.1072080694925792</v>
       </c>
       <c r="M109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -4966,7 +4966,7 @@
         <v>-0.8528607524699449</v>
       </c>
       <c r="M110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -5007,7 +5007,7 @@
         <v>-0.8653791808328098</v>
       </c>
       <c r="M111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -5048,7 +5048,7 @@
         <v>-0.5947238939951054</v>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -5089,7 +5089,7 @@
         <v>0.0001981802713062281</v>
       </c>
       <c r="M113" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
@@ -5130,7 +5130,7 @@
         <v>-1.179930250966028</v>
       </c>
       <c r="M114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -5171,7 +5171,7 @@
         <v>0.198771856898917</v>
       </c>
       <c r="M115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -5212,7 +5212,7 @@
         <v>0.4100083423416879</v>
       </c>
       <c r="M116" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -5335,7 +5335,7 @@
         <v>0.1967674612971811</v>
       </c>
       <c r="M119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -5376,7 +5376,7 @@
         <v>-0.3988796601447692</v>
       </c>
       <c r="M120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -5458,7 +5458,7 @@
         <v>-2.4030587955294</v>
       </c>
       <c r="M122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -5499,7 +5499,7 @@
         <v>-0.4567724069578584</v>
       </c>
       <c r="M123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -5540,7 +5540,7 @@
         <v>-1.232311565297192</v>
       </c>
       <c r="M124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -5622,7 +5622,7 @@
         <v>0.02890001198779622</v>
       </c>
       <c r="M126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -5663,7 +5663,7 @@
         <v>-2.04456645174411</v>
       </c>
       <c r="M127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -5704,7 +5704,7 @@
         <v>-1.11038351358971</v>
       </c>
       <c r="M128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -5745,7 +5745,7 @@
         <v>-1.4608602289649</v>
       </c>
       <c r="M129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -5786,7 +5786,7 @@
         <v>-0.2231353720723198</v>
       </c>
       <c r="M130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -5827,7 +5827,7 @@
         <v>1.692641542429701</v>
       </c>
       <c r="M131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -5868,7 +5868,7 @@
         <v>0.4144107623527024</v>
       </c>
       <c r="M132" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
@@ -5909,7 +5909,7 @@
         <v>1.429073167104978</v>
       </c>
       <c r="M133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -5950,7 +5950,7 @@
         <v>-0.8499316814769385</v>
       </c>
       <c r="M134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
@@ -5991,7 +5991,7 @@
         <v>0.4914691597892393</v>
       </c>
       <c r="M135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -6032,7 +6032,7 @@
         <v>-0.3028660427100041</v>
       </c>
       <c r="M136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -6073,7 +6073,7 @@
         <v>-0.5292470267102464</v>
       </c>
       <c r="M137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -6155,7 +6155,7 @@
         <v>-1.437938285679119</v>
       </c>
       <c r="M139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -6237,7 +6237,7 @@
         <v>-1.170884237028149</v>
       </c>
       <c r="M141" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -6319,7 +6319,7 @@
         <v>0.1477491064675024</v>
       </c>
       <c r="M143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -6360,7 +6360,7 @@
         <v>-1.02575851635933</v>
       </c>
       <c r="M144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -6401,7 +6401,7 @@
         <v>2.445570052137221</v>
       </c>
       <c r="M145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -6442,7 +6442,7 @@
         <v>-1.293193683273743</v>
       </c>
       <c r="M146" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
@@ -6483,7 +6483,7 @@
         <v>-0.3354571883574606</v>
       </c>
       <c r="M147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -6524,7 +6524,7 @@
         <v>0.8414328773527218</v>
       </c>
       <c r="M148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -6565,7 +6565,7 @@
         <v>-1.40365983215078</v>
       </c>
       <c r="M149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -6647,7 +6647,7 @@
         <v>-0.3269793634163019</v>
       </c>
       <c r="M151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -6688,7 +6688,7 @@
         <v>-2.238992689171877</v>
       </c>
       <c r="M152" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
@@ -6729,7 +6729,7 @@
         <v>1.165404958506589</v>
       </c>
       <c r="M153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -6811,7 +6811,7 @@
         <v>-3.09413990504292</v>
       </c>
       <c r="M155" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156">
@@ -6934,7 +6934,7 @@
         <v>-0.8422245926435951</v>
       </c>
       <c r="M158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -6975,7 +6975,7 @@
         <v>-1.283611357707428</v>
       </c>
       <c r="M159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -7057,7 +7057,7 @@
         <v>1.927610996870668</v>
       </c>
       <c r="M161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -7139,7 +7139,7 @@
         <v>0.247037649294174</v>
       </c>
       <c r="M163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -7180,7 +7180,7 @@
         <v>-2.169666600919256</v>
       </c>
       <c r="M164" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
@@ -7221,7 +7221,7 @@
         <v>-0.7393288692163849</v>
       </c>
       <c r="M165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -7303,7 +7303,7 @@
         <v>0.6218418584897835</v>
       </c>
       <c r="M167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -7385,7 +7385,7 @@
         <v>0.7023293201820331</v>
       </c>
       <c r="M169" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -7426,7 +7426,7 @@
         <v>0.5053046003162508</v>
       </c>
       <c r="M170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -7467,7 +7467,7 @@
         <v>-0.08840883043159735</v>
       </c>
       <c r="M171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -7508,7 +7508,7 @@
         <v>1.658508622002046</v>
       </c>
       <c r="M172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -7549,7 +7549,7 @@
         <v>0.04565426917296956</v>
       </c>
       <c r="M173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -7590,7 +7590,7 @@
         <v>-0.9427340579268838</v>
       </c>
       <c r="M174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -7713,7 +7713,7 @@
         <v>0.2599801451548112</v>
       </c>
       <c r="M177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -7754,7 +7754,7 @@
         <v>1.428012203223905</v>
       </c>
       <c r="M178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -7795,7 +7795,7 @@
         <v>-2.324680324580049</v>
       </c>
       <c r="M179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -7918,7 +7918,7 @@
         <v>1.356310867521426</v>
       </c>
       <c r="M182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -7959,7 +7959,7 @@
         <v>-1.375910200180761</v>
       </c>
       <c r="M183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -8000,7 +8000,7 @@
         <v>-1.068048012913698</v>
       </c>
       <c r="M184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -8041,7 +8041,7 @@
         <v>0.6896534251606619</v>
       </c>
       <c r="M185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -8164,7 +8164,7 @@
         <v>0.5122679130208204</v>
       </c>
       <c r="M188" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
@@ -8205,7 +8205,7 @@
         <v>-1.112599939330895</v>
       </c>
       <c r="M189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -8246,7 +8246,7 @@
         <v>0.136859092353996</v>
       </c>
       <c r="M190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -8328,7 +8328,7 @@
         <v>0.401470711700765</v>
       </c>
       <c r="M192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -8369,7 +8369,7 @@
         <v>0.3276752187004868</v>
       </c>
       <c r="M193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -8492,7 +8492,7 @@
         <v>1.435414296519931</v>
       </c>
       <c r="M196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -8533,7 +8533,7 @@
         <v>-0.7877851751208512</v>
       </c>
       <c r="M197" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198">
@@ -8574,7 +8574,7 @@
         <v>-0.008508543853200589</v>
       </c>
       <c r="M198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -8615,7 +8615,7 @@
         <v>-0.0004212719396656433</v>
       </c>
       <c r="M199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -8656,7 +8656,7 @@
         <v>-1.163966538916972</v>
       </c>
       <c r="M200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -8697,7 +8697,7 @@
         <v>-0.6146613394676173</v>
       </c>
       <c r="M201" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202">
@@ -8738,7 +8738,7 @@
         <v>-1.080967490022162</v>
       </c>
       <c r="M202" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -8820,7 +8820,7 @@
         <v>-0.5932795658016695</v>
       </c>
       <c r="M204" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -8861,7 +8861,7 @@
         <v>-0.07601160126714521</v>
       </c>
       <c r="M205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -8902,7 +8902,7 @@
         <v>0.4282203025735997</v>
       </c>
       <c r="M206" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207">
@@ -8943,7 +8943,7 @@
         <v>0.04838973550126786</v>
       </c>
       <c r="M207" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -8984,7 +8984,7 @@
         <v>1.108205452829672</v>
       </c>
       <c r="M208" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209">
@@ -9066,7 +9066,7 @@
         <v>-1.340502530099299</v>
       </c>
       <c r="M210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -9148,7 +9148,7 @@
         <v>-0.5015023295491733</v>
       </c>
       <c r="M212" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -9271,7 +9271,7 @@
         <v>-1.332832359238958</v>
       </c>
       <c r="M215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -9312,7 +9312,7 @@
         <v>0.5852370980027892</v>
       </c>
       <c r="M216" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217">
@@ -9353,7 +9353,7 @@
         <v>0.2547955463526479</v>
       </c>
       <c r="M217" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218">
@@ -9394,7 +9394,7 @@
         <v>-0.8854773304552307</v>
       </c>
       <c r="M218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -9435,7 +9435,7 @@
         <v>-0.1552866096232199</v>
       </c>
       <c r="M219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -9476,7 +9476,7 @@
         <v>0.1272483062356481</v>
       </c>
       <c r="M220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -9517,7 +9517,7 @@
         <v>1.490681279056955</v>
       </c>
       <c r="M221" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -9558,7 +9558,7 @@
         <v>-2.653875039715233</v>
       </c>
       <c r="M222" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223">
@@ -9640,7 +9640,7 @@
         <v>1.524747719218992</v>
       </c>
       <c r="M224" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -9681,7 +9681,7 @@
         <v>0.9624800230209496</v>
       </c>
       <c r="M225" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226">
@@ -9763,7 +9763,7 @@
         <v>-1.056793991951574</v>
       </c>
       <c r="M227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -9804,7 +9804,7 @@
         <v>-0.2173509154149771</v>
       </c>
       <c r="M228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -9886,7 +9886,7 @@
         <v>-3.637722967195275</v>
       </c>
       <c r="M230" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231">
@@ -9927,7 +9927,7 @@
         <v>-1.482015985565129</v>
       </c>
       <c r="M231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -10009,7 +10009,7 @@
         <v>-0.4208813334627328</v>
       </c>
       <c r="M233" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234">
@@ -10050,7 +10050,7 @@
         <v>-1.044582115468063</v>
       </c>
       <c r="M234" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -10091,7 +10091,7 @@
         <v>0.5039964776059807</v>
       </c>
       <c r="M235" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -10132,7 +10132,7 @@
         <v>-0.800009369859187</v>
       </c>
       <c r="M236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -10214,7 +10214,7 @@
         <v>1.202887968256782</v>
       </c>
       <c r="M238" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239">
@@ -10337,7 +10337,7 @@
         <v>0.09561201156532741</v>
       </c>
       <c r="M241" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -10378,7 +10378,7 @@
         <v>-0.8445578518962007</v>
       </c>
       <c r="M242" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -10419,7 +10419,7 @@
         <v>-1.049972184550137</v>
       </c>
       <c r="M243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -10501,7 +10501,7 @@
         <v>-0.1684273964547606</v>
       </c>
       <c r="M245" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246">
@@ -10542,7 +10542,7 @@
         <v>-1.352356425009762</v>
       </c>
       <c r="M246" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247">
@@ -10665,7 +10665,7 @@
         <v>-3.718983954394019</v>
       </c>
       <c r="M249" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
@@ -10706,7 +10706,7 @@
         <v>-0.5951759536881178</v>
       </c>
       <c r="M250" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
@@ -10747,7 +10747,7 @@
         <v>-0.498813733624546</v>
       </c>
       <c r="M251" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -10788,7 +10788,7 @@
         <v>1.899655561100738</v>
       </c>
       <c r="M252" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -10911,7 +10911,7 @@
         <v>-1.250647489880288</v>
       </c>
       <c r="M255" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -10952,7 +10952,7 @@
         <v>1.581281025246895</v>
       </c>
       <c r="M256" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257">
@@ -10993,7 +10993,7 @@
         <v>-1.066569704816411</v>
       </c>
       <c r="M257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -11034,7 +11034,7 @@
         <v>-0.721292593220742</v>
       </c>
       <c r="M258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -11075,7 +11075,7 @@
         <v>-0.305530567243945</v>
       </c>
       <c r="M259" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -11116,7 +11116,7 @@
         <v>-1.525541607968454</v>
       </c>
       <c r="M260" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261">
@@ -11157,7 +11157,7 @@
         <v>1.328747474701685</v>
       </c>
       <c r="M261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -11198,7 +11198,7 @@
         <v>0.1174253514114516</v>
       </c>
       <c r="M262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
@@ -11280,7 +11280,7 @@
         <v>-0.7368828850650383</v>
       </c>
       <c r="M264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -11362,7 +11362,7 @@
         <v>1.258532076465486</v>
       </c>
       <c r="M266" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -11403,7 +11403,7 @@
         <v>0.2376289674283409</v>
       </c>
       <c r="M267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -11485,7 +11485,7 @@
         <v>-1.71660752196141</v>
       </c>
       <c r="M269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -11526,7 +11526,7 @@
         <v>-0.1521505028762649</v>
       </c>
       <c r="M270" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -11608,7 +11608,7 @@
         <v>0.4407625354199186</v>
       </c>
       <c r="M272" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -11649,7 +11649,7 @@
         <v>-0.8989892591585397</v>
       </c>
       <c r="M273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
@@ -11772,7 +11772,7 @@
         <v>3.011097649769416</v>
       </c>
       <c r="M276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -11813,7 +11813,7 @@
         <v>-1.986843053956486</v>
       </c>
       <c r="M277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -11854,7 +11854,7 @@
         <v>0.8352786488913795</v>
       </c>
       <c r="M278" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -11895,7 +11895,7 @@
         <v>-1.302582248557222</v>
       </c>
       <c r="M279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280">
@@ -11936,7 +11936,7 @@
         <v>2.005777847020099</v>
       </c>
       <c r="M280" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -11977,7 +11977,7 @@
         <v>-1.320877041329712</v>
       </c>
       <c r="M281" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282">
@@ -12059,7 +12059,7 @@
         <v>0.8098829705574045</v>
       </c>
       <c r="M283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -12100,7 +12100,7 @@
         <v>0.6566939036906589</v>
       </c>
       <c r="M284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -12182,7 +12182,7 @@
         <v>1.830687985406895</v>
       </c>
       <c r="M286" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -12223,7 +12223,7 @@
         <v>0.9868021596857965</v>
       </c>
       <c r="M287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -12264,7 +12264,7 @@
         <v>-2.112460757418554</v>
       </c>
       <c r="M288" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289">
@@ -12305,7 +12305,7 @@
         <v>-1.884888195737408</v>
       </c>
       <c r="M289" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290">
@@ -12346,7 +12346,7 @@
         <v>0.03964303936644093</v>
       </c>
       <c r="M290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -12387,7 +12387,7 @@
         <v>-0.5911551151158014</v>
       </c>
       <c r="M291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292">
@@ -12428,7 +12428,7 @@
         <v>-1.580347863101668</v>
       </c>
       <c r="M292" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -12469,7 +12469,7 @@
         <v>-1.345463490722807</v>
       </c>
       <c r="M293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294">
@@ -12510,7 +12510,7 @@
         <v>-1.614922466142736</v>
       </c>
       <c r="M294" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295">
@@ -12551,7 +12551,7 @@
         <v>-2.024890886648544</v>
       </c>
       <c r="M295" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296">
@@ -12633,7 +12633,7 @@
         <v>-0.5688660189382369</v>
       </c>
       <c r="M297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298">
@@ -12674,7 +12674,7 @@
         <v>-1.370522632042015</v>
       </c>
       <c r="M298" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299">
@@ -12715,7 +12715,7 @@
         <v>-1.730093169711804</v>
       </c>
       <c r="M299" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300">
@@ -12756,7 +12756,7 @@
         <v>1.801247022777119</v>
       </c>
       <c r="M300" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301">
@@ -12797,7 +12797,7 @@
         <v>2.494186418094372</v>
       </c>
       <c r="M301" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -12879,7 +12879,7 @@
         <v>-0.8928916008657791</v>
       </c>
       <c r="M303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -12920,7 +12920,7 @@
         <v>-0.3465948442506135</v>
       </c>
       <c r="M304" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -12961,7 +12961,7 @@
         <v>0.6108282118903011</v>
       </c>
       <c r="M305" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -13043,7 +13043,7 @@
         <v>-1.191549115780007</v>
       </c>
       <c r="M307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -13084,7 +13084,7 @@
         <v>1.937241635347032</v>
       </c>
       <c r="M308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -13125,7 +13125,7 @@
         <v>-0.8859407727561922</v>
       </c>
       <c r="M309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -13166,7 +13166,7 @@
         <v>-1.45854501436173</v>
       </c>
       <c r="M310" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311">
@@ -13207,7 +13207,7 @@
         <v>-1.051728267100752</v>
       </c>
       <c r="M311" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312">
@@ -13248,7 +13248,7 @@
         <v>0.6651441504419235</v>
       </c>
       <c r="M312" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -13289,7 +13289,7 @@
         <v>-2.209667973395397</v>
       </c>
       <c r="M313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -13330,7 +13330,7 @@
         <v>-0.03295892341502359</v>
       </c>
       <c r="M314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -13371,7 +13371,7 @@
         <v>-0.4235659951172015</v>
       </c>
       <c r="M315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -13412,7 +13412,7 @@
         <v>0.6397524026586627</v>
       </c>
       <c r="M316" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -13453,7 +13453,7 @@
         <v>-0.8183126721333092</v>
       </c>
       <c r="M317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -13494,7 +13494,7 @@
         <v>0.3230043788296009</v>
       </c>
       <c r="M318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -13576,7 +13576,7 @@
         <v>-1.206304799878277</v>
       </c>
       <c r="M320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -13658,7 +13658,7 @@
         <v>-0.3238756939359961</v>
       </c>
       <c r="M322" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323">
@@ -13699,7 +13699,7 @@
         <v>-0.1738136025988412</v>
       </c>
       <c r="M323" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -13740,7 +13740,7 @@
         <v>0.2449196706968765</v>
       </c>
       <c r="M324" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -13822,7 +13822,7 @@
         <v>-0.9740081058877832</v>
       </c>
       <c r="M326" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -13863,7 +13863,7 @@
         <v>-0.7931443296363644</v>
       </c>
       <c r="M327" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328">
@@ -13904,7 +13904,7 @@
         <v>-1.147133639562427</v>
       </c>
       <c r="M328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -13986,7 +13986,7 @@
         <v>-1.29543413516148</v>
       </c>
       <c r="M330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -14027,7 +14027,7 @@
         <v>0.2802677032384688</v>
       </c>
       <c r="M331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -14068,7 +14068,7 @@
         <v>1.110135108371469</v>
       </c>
       <c r="M332" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -14191,7 +14191,7 @@
         <v>2.858690216445314</v>
       </c>
       <c r="M335" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -14273,7 +14273,7 @@
         <v>-2.379977037194193</v>
       </c>
       <c r="M337" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="338">
@@ -14314,7 +14314,7 @@
         <v>0.1278007135236423</v>
       </c>
       <c r="M338" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -14355,7 +14355,7 @@
         <v>1.792467706686296</v>
       </c>
       <c r="M339" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -14396,7 +14396,7 @@
         <v>0.1804504785631977</v>
       </c>
       <c r="M340" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341">
@@ -14478,7 +14478,7 @@
         <v>-0.7427458765189104</v>
       </c>
       <c r="M342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -14519,7 +14519,7 @@
         <v>-0.4354073597664967</v>
       </c>
       <c r="M343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -14560,7 +14560,7 @@
         <v>-1.550368766324227</v>
       </c>
       <c r="M344" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -14642,7 +14642,7 @@
         <v>2.233418253042248</v>
       </c>
       <c r="M346" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -14683,7 +14683,7 @@
         <v>0.6822885508363837</v>
       </c>
       <c r="M347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
@@ -14724,7 +14724,7 @@
         <v>-1.045118861796049</v>
       </c>
       <c r="M348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -14765,7 +14765,7 @@
         <v>0.3110861847350933</v>
       </c>
       <c r="M349" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -14806,7 +14806,7 @@
         <v>-0.2214718930386814</v>
       </c>
       <c r="M350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
@@ -14847,7 +14847,7 @@
         <v>-0.02300421690671305</v>
       </c>
       <c r="M351" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -14888,7 +14888,7 @@
         <v>0.3337772252143595</v>
       </c>
       <c r="M352" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -14970,7 +14970,7 @@
         <v>0.2778857763050122</v>
       </c>
       <c r="M354" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -15011,7 +15011,7 @@
         <v>-0.6632820847353216</v>
       </c>
       <c r="M355" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -15052,7 +15052,7 @@
         <v>-0.3802966854443078</v>
       </c>
       <c r="M356" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -15134,7 +15134,7 @@
         <v>-1.616137429386495</v>
       </c>
       <c r="M358" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359">
@@ -15175,7 +15175,7 @@
         <v>1.710087231130543</v>
       </c>
       <c r="M359" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -15257,7 +15257,7 @@
         <v>-1.475970671659566</v>
       </c>
       <c r="M361" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362">
@@ -15298,7 +15298,7 @@
         <v>-0.7532189717429288</v>
       </c>
       <c r="M362" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363">
@@ -15380,7 +15380,7 @@
         <v>1.226968745217263</v>
       </c>
       <c r="M364" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -15462,7 +15462,7 @@
         <v>-0.9612379165724717</v>
       </c>
       <c r="M366" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367">
@@ -15503,7 +15503,7 @@
         <v>-0.4688318788424107</v>
       </c>
       <c r="M367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368">
@@ -15585,7 +15585,7 @@
         <v>-0.5872331599849421</v>
       </c>
       <c r="M369" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -15626,7 +15626,7 @@
         <v>-0.4568070931024579</v>
       </c>
       <c r="M370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -15667,7 +15667,7 @@
         <v>0.1227921878599843</v>
       </c>
       <c r="M371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -15708,7 +15708,7 @@
         <v>-3.121103432387405</v>
       </c>
       <c r="M372" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373">
@@ -15749,7 +15749,7 @@
         <v>-1.201711174794752</v>
       </c>
       <c r="M373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -15790,7 +15790,7 @@
         <v>-1.532477881931631</v>
       </c>
       <c r="M374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375">
@@ -15831,7 +15831,7 @@
         <v>-1.388568287615931</v>
       </c>
       <c r="M375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376">
@@ -15872,7 +15872,7 @@
         <v>-1.845179290289871</v>
       </c>
       <c r="M376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377">
@@ -15913,7 +15913,7 @@
         <v>1.08958279470506</v>
       </c>
       <c r="M377" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378">
@@ -15954,7 +15954,7 @@
         <v>-0.8477032946585534</v>
       </c>
       <c r="M378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -15995,7 +15995,7 @@
         <v>-1.799058939270817</v>
       </c>
       <c r="M379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -16077,7 +16077,7 @@
         <v>-1.735688950779422</v>
       </c>
       <c r="M381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382">
@@ -16118,7 +16118,7 @@
         <v>-1.438718396676427</v>
       </c>
       <c r="M382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383">
@@ -16159,7 +16159,7 @@
         <v>-0.6258037231698177</v>
       </c>
       <c r="M383" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -16200,7 +16200,7 @@
         <v>-1.209804141240004</v>
       </c>
       <c r="M384" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385">
@@ -16282,7 +16282,7 @@
         <v>-0.7709144637019949</v>
       </c>
       <c r="M386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387">
@@ -16323,7 +16323,7 @@
         <v>-0.3161248072567934</v>
       </c>
       <c r="M387" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -16364,7 +16364,7 @@
         <v>0.3695808330110528</v>
       </c>
       <c r="M388" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -16405,7 +16405,7 @@
         <v>1.054658960784489</v>
       </c>
       <c r="M389" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -16446,7 +16446,7 @@
         <v>0.839100157963883</v>
       </c>
       <c r="M390" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391">
@@ -16487,7 +16487,7 @@
         <v>-0.8635963751674669</v>
       </c>
       <c r="M391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -16528,7 +16528,7 @@
         <v>-0.8135450454409695</v>
       </c>
       <c r="M392" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393">
@@ -16610,7 +16610,7 @@
         <v>-1.681438204694836</v>
       </c>
       <c r="M394" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395">
@@ -16651,7 +16651,7 @@
         <v>0.5604306037426174</v>
       </c>
       <c r="M395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -16733,7 +16733,7 @@
         <v>-1.966482516403765</v>
       </c>
       <c r="M397" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398">
@@ -16774,7 +16774,7 @@
         <v>-0.6326785181994501</v>
       </c>
       <c r="M398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399">
@@ -16856,7 +16856,7 @@
         <v>0.4246266819204753</v>
       </c>
       <c r="M400" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -16938,7 +16938,7 @@
         <v>1.032424129345095</v>
       </c>
       <c r="M402" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -17020,7 +17020,7 @@
         <v>-0.02987378044925656</v>
       </c>
       <c r="M404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -17061,7 +17061,7 @@
         <v>1.017641171931762</v>
       </c>
       <c r="M405" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -17184,7 +17184,7 @@
         <v>1.760940879875108</v>
       </c>
       <c r="M408" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -17225,7 +17225,7 @@
         <v>-0.0008474530810327504</v>
       </c>
       <c r="M409" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -17307,7 +17307,7 @@
         <v>-3.062101838131692</v>
       </c>
       <c r="M411" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="412">
@@ -17348,7 +17348,7 @@
         <v>-0.4991539241192528</v>
       </c>
       <c r="M412" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -17389,7 +17389,7 @@
         <v>-1.609481038073003</v>
       </c>
       <c r="M413" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="414">
@@ -17430,7 +17430,7 @@
         <v>-2.344162839933391</v>
       </c>
       <c r="M414" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415">
@@ -17471,7 +17471,7 @@
         <v>-0.7507456651974674</v>
       </c>
       <c r="M415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -17512,7 +17512,7 @@
         <v>-1.695139094075633</v>
       </c>
       <c r="M416" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417">
@@ -17553,7 +17553,7 @@
         <v>-1.792023096282947</v>
       </c>
       <c r="M417" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418">
@@ -17594,7 +17594,7 @@
         <v>-1.111682922473781</v>
       </c>
       <c r="M418" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -17676,7 +17676,7 @@
         <v>0.153377493922926</v>
       </c>
       <c r="M420" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -17717,7 +17717,7 @@
         <v>-0.21026912746863</v>
       </c>
       <c r="M421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422">
@@ -17758,7 +17758,7 @@
         <v>-2.075631737329866</v>
       </c>
       <c r="M422" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="423">
@@ -17799,7 +17799,7 @@
         <v>-0.8449327550897986</v>
       </c>
       <c r="M423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -17840,7 +17840,7 @@
         <v>-2.292879548038615</v>
       </c>
       <c r="M424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425">
@@ -17881,7 +17881,7 @@
         <v>-0.7237107218110632</v>
       </c>
       <c r="M425" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -17922,7 +17922,7 @@
         <v>0.0600961704424119</v>
       </c>
       <c r="M426" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427">
@@ -17963,7 +17963,7 @@
         <v>-0.8073005178936371</v>
       </c>
       <c r="M427" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="428">
@@ -18004,7 +18004,7 @@
         <v>0.4568566101924104</v>
       </c>
       <c r="M428" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -18045,7 +18045,7 @@
         <v>-0.4060968575657941</v>
       </c>
       <c r="M429" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="430">
@@ -18086,7 +18086,7 @@
         <v>-1.990079567714269</v>
       </c>
       <c r="M430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -18127,7 +18127,7 @@
         <v>-0.2267387754340514</v>
       </c>
       <c r="M431" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="432">
@@ -18168,7 +18168,7 @@
         <v>0.1800706506022423</v>
       </c>
       <c r="M432" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -18209,7 +18209,7 @@
         <v>-0.001317964456823961</v>
       </c>
       <c r="M433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434">
@@ -18332,7 +18332,7 @@
         <v>-0.08249602937731777</v>
       </c>
       <c r="M436" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -18496,7 +18496,7 @@
         <v>-0.2416728901267654</v>
       </c>
       <c r="M440" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -18537,7 +18537,7 @@
         <v>0.6866887311868733</v>
       </c>
       <c r="M441" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -18660,7 +18660,7 @@
         <v>-0.7422410742297646</v>
       </c>
       <c r="M444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445">
@@ -18701,7 +18701,7 @@
         <v>1.422882143193148</v>
       </c>
       <c r="M445" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -18742,7 +18742,7 @@
         <v>0.6561147076979112</v>
       </c>
       <c r="M446" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -18824,7 +18824,7 @@
         <v>-0.501823275981808</v>
       </c>
       <c r="M448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449">
@@ -18865,7 +18865,7 @@
         <v>-1.866521768314245</v>
       </c>
       <c r="M449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450">
@@ -18906,7 +18906,7 @@
         <v>-1.441033464075575</v>
       </c>
       <c r="M450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -18947,7 +18947,7 @@
         <v>-0.77316279328419</v>
       </c>
       <c r="M451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -18988,7 +18988,7 @@
         <v>-0.6689206937632104</v>
       </c>
       <c r="M452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453">
@@ -19070,7 +19070,7 @@
         <v>-2.068726955547482</v>
       </c>
       <c r="M454" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455">
@@ -19111,7 +19111,7 @@
         <v>2.149340628347848</v>
       </c>
       <c r="M455" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -19152,7 +19152,7 @@
         <v>-1.376738675714191</v>
       </c>
       <c r="M456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457">
@@ -19275,7 +19275,7 @@
         <v>-0.5365902118870297</v>
       </c>
       <c r="M459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -19316,7 +19316,7 @@
         <v>0.4107822164989993</v>
       </c>
       <c r="M460" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="461">
@@ -19357,7 +19357,7 @@
         <v>2.791283342501163</v>
       </c>
       <c r="M461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462">
@@ -19398,7 +19398,7 @@
         <v>1.560849764027197</v>
       </c>
       <c r="M462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463">
@@ -19439,7 +19439,7 @@
         <v>0.07170335753090946</v>
       </c>
       <c r="M463" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -19521,7 +19521,7 @@
         <v>0.3714039232093322</v>
       </c>
       <c r="M465" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -19562,7 +19562,7 @@
         <v>1.682773523095441</v>
       </c>
       <c r="M466" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -19603,7 +19603,7 @@
         <v>-0.876159638056646</v>
       </c>
       <c r="M467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468">
@@ -19644,7 +19644,7 @@
         <v>-0.7560660869735474</v>
       </c>
       <c r="M468" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -19685,7 +19685,7 @@
         <v>-1.866570338341476</v>
       </c>
       <c r="M469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470">
@@ -19726,7 +19726,7 @@
         <v>1.940078922123826</v>
       </c>
       <c r="M470" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -19767,7 +19767,7 @@
         <v>-1.128902263932494</v>
       </c>
       <c r="M471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472">
@@ -19890,7 +19890,7 @@
         <v>-1.243320247037681</v>
       </c>
       <c r="M474" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -19972,7 +19972,7 @@
         <v>0.5482717064569398</v>
       </c>
       <c r="M476" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -20054,7 +20054,7 @@
         <v>-1.494817423251831</v>
       </c>
       <c r="M478" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="479">
@@ -20095,7 +20095,7 @@
         <v>0.5031303959087546</v>
       </c>
       <c r="M479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480">
@@ -20136,7 +20136,7 @@
         <v>0.6759644944664706</v>
       </c>
       <c r="M480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481">
@@ -20218,7 +20218,7 @@
         <v>-0.7859098564929149</v>
       </c>
       <c r="M482" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="483">
@@ -20259,7 +20259,7 @@
         <v>-1.013529627281625</v>
       </c>
       <c r="M483" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -20300,7 +20300,7 @@
         <v>-0.20725889865894</v>
       </c>
       <c r="M484" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -20341,7 +20341,7 @@
         <v>-1.732864622108255</v>
       </c>
       <c r="M485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486">
@@ -20423,7 +20423,7 @@
         <v>-2.117980646096047</v>
       </c>
       <c r="M487" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="488">
@@ -20464,7 +20464,7 @@
         <v>-3.15382466647177</v>
       </c>
       <c r="M488" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="489">
@@ -20505,7 +20505,7 @@
         <v>-1.059725457920791</v>
       </c>
       <c r="M489" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="490">
@@ -20546,7 +20546,7 @@
         <v>0.225017102985462</v>
       </c>
       <c r="M490" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -20628,7 +20628,7 @@
         <v>-1.323606276461091</v>
       </c>
       <c r="M492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493">
@@ -20669,7 +20669,7 @@
         <v>-0.01544468512028538</v>
       </c>
       <c r="M493" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -20710,7 +20710,7 @@
         <v>-0.2617262388058312</v>
       </c>
       <c r="M494" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -20751,7 +20751,7 @@
         <v>0.4516541978286159</v>
       </c>
       <c r="M495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496">
@@ -20792,7 +20792,7 @@
         <v>0.7921347457700457</v>
       </c>
       <c r="M496" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -20874,7 +20874,7 @@
         <v>0.964290146085752</v>
       </c>
       <c r="M498" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -20915,7 +20915,7 @@
         <v>-0.7104553660254932</v>
       </c>
       <c r="M499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500">
@@ -20997,7 +20997,7 @@
         <v>-0.1977780993924319</v>
       </c>
       <c r="M501" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="502">
@@ -21038,7 +21038,7 @@
         <v>-0.5836118921800439</v>
       </c>
       <c r="M502" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503">
@@ -21079,7 +21079,7 @@
         <v>-0.6937751225835969</v>
       </c>
       <c r="M503" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -21120,7 +21120,7 @@
         <v>-0.1149369428830446</v>
       </c>
       <c r="M504" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -21161,7 +21161,7 @@
         <v>0.3413925323495826</v>
       </c>
       <c r="M505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -21202,7 +21202,7 @@
         <v>-0.283298047819268</v>
       </c>
       <c r="M506" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -21243,7 +21243,7 @@
         <v>1.859613581189283</v>
       </c>
       <c r="M507" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -21284,7 +21284,7 @@
         <v>-0.3061186152973682</v>
       </c>
       <c r="M508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -21325,7 +21325,7 @@
         <v>-1.482326582253307</v>
       </c>
       <c r="M509" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="510">
@@ -21366,7 +21366,7 @@
         <v>-1.391338124408772</v>
       </c>
       <c r="M510" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -21448,7 +21448,7 @@
         <v>2.06972973925852</v>
       </c>
       <c r="M512" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -21489,7 +21489,7 @@
         <v>-1.131771101014226</v>
       </c>
       <c r="M513" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="514">
@@ -21530,7 +21530,7 @@
         <v>2.901014255746374</v>
       </c>
       <c r="M514" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -21571,7 +21571,7 @@
         <v>-0.09776252919142295</v>
       </c>
       <c r="M515" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -21612,7 +21612,7 @@
         <v>-0.4036601877707033</v>
       </c>
       <c r="M516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517">
@@ -21653,7 +21653,7 @@
         <v>0.08136471195086122</v>
       </c>
       <c r="M517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518">
@@ -21694,7 +21694,7 @@
         <v>1.27795800313681</v>
       </c>
       <c r="M518" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519">
@@ -21776,7 +21776,7 @@
         <v>2.473271365493903</v>
       </c>
       <c r="M520" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -21817,7 +21817,7 @@
         <v>1.406123715605396</v>
       </c>
       <c r="M521" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522">
@@ -21858,7 +21858,7 @@
         <v>-0.8748402715503166</v>
       </c>
       <c r="M522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523">
@@ -21899,7 +21899,7 @@
         <v>-0.9882263513606701</v>
       </c>
       <c r="M523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524">
@@ -21940,7 +21940,7 @@
         <v>1.537340459587497</v>
       </c>
       <c r="M524" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
@@ -22022,7 +22022,7 @@
         <v>0.3249153145058902</v>
       </c>
       <c r="M526" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -22063,7 +22063,7 @@
         <v>-0.3198703059162487</v>
       </c>
       <c r="M527" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -22104,7 +22104,7 @@
         <v>-0.701958325380811</v>
       </c>
       <c r="M528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529">
@@ -22145,7 +22145,7 @@
         <v>-0.2448855733143468</v>
       </c>
       <c r="M529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530">
@@ -22186,7 +22186,7 @@
         <v>-1.852141508414196</v>
       </c>
       <c r="M530" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531">
@@ -22227,7 +22227,7 @@
         <v>0.06496809132965099</v>
       </c>
       <c r="M531" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -22268,7 +22268,7 @@
         <v>-1.011424914448949</v>
       </c>
       <c r="M532" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533">
@@ -22309,7 +22309,7 @@
         <v>-0.8045901721077483</v>
       </c>
       <c r="M533" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -22350,7 +22350,7 @@
         <v>-2.18649298292536</v>
       </c>
       <c r="M534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535">
@@ -22391,7 +22391,7 @@
         <v>0.7348050500601941</v>
       </c>
       <c r="M535" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -22473,7 +22473,7 @@
         <v>0.5285516404421853</v>
       </c>
       <c r="M537" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -22514,7 +22514,7 @@
         <v>0.8988356684635546</v>
       </c>
       <c r="M538" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -22555,7 +22555,7 @@
         <v>1.562396256831999</v>
       </c>
       <c r="M539" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -22596,7 +22596,7 @@
         <v>-2.29137252918625</v>
       </c>
       <c r="M540" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541">
@@ -22637,7 +22637,7 @@
         <v>-1.311033818541033</v>
       </c>
       <c r="M541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542">
@@ -22678,7 +22678,7 @@
         <v>-0.008271818449910614</v>
       </c>
       <c r="M542" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543">
@@ -22719,7 +22719,7 @@
         <v>-0.6931654434439162</v>
       </c>
       <c r="M543" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544">
@@ -22760,7 +22760,7 @@
         <v>1.812894946791166</v>
       </c>
       <c r="M544" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -22842,7 +22842,7 @@
         <v>-0.9985134859101946</v>
       </c>
       <c r="M546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547">
@@ -22883,7 +22883,7 @@
         <v>0.3816847570225745</v>
       </c>
       <c r="M547" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="548">
@@ -22924,7 +22924,7 @@
         <v>0.3215647298475461</v>
       </c>
       <c r="M548" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="549">
@@ -22965,7 +22965,7 @@
         <v>-0.4427571794595998</v>
       </c>
       <c r="M549" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="550">
@@ -23006,7 +23006,7 @@
         <v>-0.1833921073348335</v>
       </c>
       <c r="M550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551">
@@ -23088,7 +23088,7 @@
         <v>-0.8261935413095207</v>
       </c>
       <c r="M552" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -23129,7 +23129,7 @@
         <v>-1.140205414898401</v>
       </c>
       <c r="M553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554">
@@ -23170,7 +23170,7 @@
         <v>2.789766063030171</v>
       </c>
       <c r="M554" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -23211,7 +23211,7 @@
         <v>-1.043720668736735</v>
       </c>
       <c r="M555" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -23252,7 +23252,7 @@
         <v>-1.227782790753456</v>
       </c>
       <c r="M556" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557">
@@ -23293,7 +23293,7 @@
         <v>0.1329236169915909</v>
       </c>
       <c r="M557" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="558">
@@ -23334,7 +23334,7 @@
         <v>-1.105291576986177</v>
       </c>
       <c r="M558" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -23375,7 +23375,7 @@
         <v>2.7047061214515</v>
       </c>
       <c r="M559" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -23416,7 +23416,7 @@
         <v>0.8511135673516115</v>
       </c>
       <c r="M560" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -23457,7 +23457,7 @@
         <v>1.956782938959645</v>
       </c>
       <c r="M561" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -23539,7 +23539,7 @@
         <v>-1.59129632499413</v>
       </c>
       <c r="M563" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="564">
@@ -23580,7 +23580,7 @@
         <v>-1.56451440727541</v>
       </c>
       <c r="M564" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565">
@@ -23662,7 +23662,7 @@
         <v>-0.3174912438699384</v>
       </c>
       <c r="M566" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -23703,7 +23703,7 @@
         <v>-0.8561767224514735</v>
       </c>
       <c r="M567" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568">
@@ -23744,7 +23744,7 @@
         <v>-1.393104098730033</v>
       </c>
       <c r="M568" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -23785,7 +23785,7 @@
         <v>0.4391391878483634</v>
       </c>
       <c r="M569" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570">
@@ -23826,7 +23826,7 @@
         <v>-0.1037638710553097</v>
       </c>
       <c r="M570" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571">
@@ -23908,7 +23908,7 @@
         <v>0.8064816407656639</v>
       </c>
       <c r="M572" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -23990,7 +23990,7 @@
         <v>-0.9069913043397543</v>
       </c>
       <c r="M574" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -24031,7 +24031,7 @@
         <v>-0.9545171730325802</v>
       </c>
       <c r="M575" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576">
@@ -24072,7 +24072,7 @@
         <v>-2.126927532325908</v>
       </c>
       <c r="M576" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="577">
@@ -24113,7 +24113,7 @@
         <v>-1.683134087882559</v>
       </c>
       <c r="M577" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578">
@@ -24154,7 +24154,7 @@
         <v>0.0984664232252377</v>
       </c>
       <c r="M578" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579">
@@ -24195,7 +24195,7 @@
         <v>-0.1998750002348713</v>
       </c>
       <c r="M579" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -24359,7 +24359,7 @@
         <v>0.2754584623575251</v>
       </c>
       <c r="M583" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -24441,7 +24441,7 @@
         <v>1.682783574171371</v>
       </c>
       <c r="M585" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -24482,7 +24482,7 @@
         <v>0.01066964642957791</v>
       </c>
       <c r="M586" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="587">
@@ -24523,7 +24523,7 @@
         <v>-0.3868846121991962</v>
       </c>
       <c r="M587" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -24605,7 +24605,7 @@
         <v>1.117951077132217</v>
       </c>
       <c r="M589" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -24646,7 +24646,7 @@
         <v>0.3227199923328463</v>
       </c>
       <c r="M590" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="591">
@@ -24687,7 +24687,7 @@
         <v>-0.2147281519422967</v>
       </c>
       <c r="M591" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -24728,7 +24728,7 @@
         <v>0.9353564757565461</v>
       </c>
       <c r="M592" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -24769,7 +24769,7 @@
         <v>-1.8820267482572</v>
       </c>
       <c r="M593" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594">
@@ -24851,7 +24851,7 @@
         <v>-1.639331940509203</v>
       </c>
       <c r="M595" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596">
@@ -24892,7 +24892,7 @@
         <v>-1.060699938784794</v>
       </c>
       <c r="M596" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="597">
@@ -24933,7 +24933,7 @@
         <v>-0.9212832735808757</v>
       </c>
       <c r="M597" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="598">
@@ -24974,7 +24974,7 @@
         <v>0.3341256491477501</v>
       </c>
       <c r="M598" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -25015,7 +25015,7 @@
         <v>-1.039504396890097</v>
       </c>
       <c r="M599" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -25097,7 +25097,7 @@
         <v>-0.7784270602012541</v>
       </c>
       <c r="M601" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602">
@@ -25138,7 +25138,7 @@
         <v>-0.5135429363250028</v>
       </c>
       <c r="M602" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -25179,7 +25179,7 @@
         <v>0.9410448537803362</v>
       </c>
       <c r="M603" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -25220,7 +25220,7 @@
         <v>-0.5650301180054944</v>
       </c>
       <c r="M604" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -25261,7 +25261,7 @@
         <v>1.173083134603749</v>
       </c>
       <c r="M605" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606">
@@ -25343,7 +25343,7 @@
         <v>-1.326915915794782</v>
       </c>
       <c r="M607" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -25384,7 +25384,7 @@
         <v>-2.434264032295458</v>
       </c>
       <c r="M608" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="609">
@@ -25425,7 +25425,7 @@
         <v>-0.7140183832366744</v>
       </c>
       <c r="M609" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -25466,7 +25466,7 @@
         <v>-2.134098493659388</v>
       </c>
       <c r="M610" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="611">
@@ -25507,7 +25507,7 @@
         <v>-0.7835137998624666</v>
       </c>
       <c r="M611" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="612">
@@ -25548,7 +25548,7 @@
         <v>-0.8756047418305203</v>
       </c>
       <c r="M612" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613">
@@ -25589,7 +25589,7 @@
         <v>-0.145226984374162</v>
       </c>
       <c r="M613" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="614">
@@ -25630,7 +25630,7 @@
         <v>-0.4819515787011877</v>
       </c>
       <c r="M614" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="615">
@@ -25671,7 +25671,7 @@
         <v>-0.3179461465884431</v>
       </c>
       <c r="M615" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -25712,7 +25712,7 @@
         <v>1.648909995910643</v>
       </c>
       <c r="M616" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617">
@@ -25753,7 +25753,7 @@
         <v>0.5628208760600767</v>
       </c>
       <c r="M617" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -25794,7 +25794,7 @@
         <v>1.208187083871447</v>
       </c>
       <c r="M618" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
@@ -25835,7 +25835,7 @@
         <v>-0.199176430495602</v>
       </c>
       <c r="M619" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -25876,7 +25876,7 @@
         <v>1.60478031057846</v>
       </c>
       <c r="M620" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -25917,7 +25917,7 @@
         <v>0.007008380410738044</v>
       </c>
       <c r="M621" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -25958,7 +25958,7 @@
         <v>-1.528986307570273</v>
       </c>
       <c r="M622" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623">
@@ -25999,7 +25999,7 @@
         <v>-0.8895168394433054</v>
       </c>
       <c r="M623" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -26081,7 +26081,7 @@
         <v>-1.880795658547353</v>
       </c>
       <c r="M625" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626">
@@ -26122,7 +26122,7 @@
         <v>0.01329003273164005</v>
       </c>
       <c r="M626" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
@@ -26204,7 +26204,7 @@
         <v>-0.1020989918632183</v>
       </c>
       <c r="M628" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
@@ -26327,7 +26327,7 @@
         <v>-0.163631528385988</v>
       </c>
       <c r="M631" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
@@ -26368,7 +26368,7 @@
         <v>1.515968843422141</v>
       </c>
       <c r="M632" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
@@ -26409,7 +26409,7 @@
         <v>-1.69221963881688</v>
       </c>
       <c r="M633" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634">
@@ -26450,7 +26450,7 @@
         <v>0.1283461176727171</v>
       </c>
       <c r="M634" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -26491,7 +26491,7 @@
         <v>-0.9270270309087471</v>
       </c>
       <c r="M635" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="636">
@@ -26532,7 +26532,7 @@
         <v>1.793413329021341</v>
       </c>
       <c r="M636" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
@@ -26573,7 +26573,7 @@
         <v>2.666284195745086</v>
       </c>
       <c r="M637" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -26614,7 +26614,7 @@
         <v>1.776125797547391</v>
       </c>
       <c r="M638" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -26655,7 +26655,7 @@
         <v>-0.9002544072188683</v>
       </c>
       <c r="M639" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640">
@@ -26696,7 +26696,7 @@
         <v>-0.2117037509565962</v>
       </c>
       <c r="M640" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641">
@@ -26737,7 +26737,7 @@
         <v>0.001146333793746774</v>
       </c>
       <c r="M641" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
@@ -26778,7 +26778,7 @@
         <v>-1.039338653654027</v>
       </c>
       <c r="M642" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643">
@@ -26901,7 +26901,7 @@
         <v>0.4089192692631121</v>
       </c>
       <c r="M645" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -26942,7 +26942,7 @@
         <v>-1.083729090834661</v>
       </c>
       <c r="M646" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647">
@@ -26983,7 +26983,7 @@
         <v>-1.966717206822724</v>
       </c>
       <c r="M647" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="648">
@@ -27024,7 +27024,7 @@
         <v>0.04844837292477134</v>
       </c>
       <c r="M648" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649">
@@ -27065,7 +27065,7 @@
         <v>-1.598027848312199</v>
       </c>
       <c r="M649" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="650">
@@ -27106,7 +27106,7 @@
         <v>1.459287996465945</v>
       </c>
       <c r="M650" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651">
@@ -27147,7 +27147,7 @@
         <v>-0.7942978103065386</v>
       </c>
       <c r="M651" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -27188,7 +27188,7 @@
         <v>-1.02985167404689</v>
       </c>
       <c r="M652" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653">
@@ -27229,7 +27229,7 @@
         <v>-1.070781355527863</v>
       </c>
       <c r="M653" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654">
@@ -27270,7 +27270,7 @@
         <v>-0.6398991032778625</v>
       </c>
       <c r="M654" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655">
@@ -27311,7 +27311,7 @@
         <v>0.2471365949128165</v>
       </c>
       <c r="M655" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -27352,7 +27352,7 @@
         <v>-1.375997463012506</v>
       </c>
       <c r="M656" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657">
@@ -27393,7 +27393,7 @@
         <v>-2.04837502693678</v>
       </c>
       <c r="M657" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="658">
@@ -27434,7 +27434,7 @@
         <v>-0.9969516922918096</v>
       </c>
       <c r="M658" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659">
@@ -27475,7 +27475,7 @@
         <v>-1.876415811376451</v>
       </c>
       <c r="M659" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="660">
@@ -27557,7 +27557,7 @@
         <v>-1.052608387701334</v>
       </c>
       <c r="M661" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662">
@@ -27680,7 +27680,7 @@
         <v>0.3611393447658677</v>
       </c>
       <c r="M664" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="665">
@@ -27721,7 +27721,7 @@
         <v>0.3075282819038365</v>
       </c>
       <c r="M665" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666">
@@ -27762,7 +27762,7 @@
         <v>0.6175281266533539</v>
       </c>
       <c r="M666" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -27803,7 +27803,7 @@
         <v>-1.767992924127431</v>
       </c>
       <c r="M667" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668">
@@ -27885,7 +27885,7 @@
         <v>1.814053642451867</v>
       </c>
       <c r="M669" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -27926,7 +27926,7 @@
         <v>-0.1500975814520996</v>
       </c>
       <c r="M670" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="671">
@@ -27967,7 +27967,7 @@
         <v>1.211540509950305</v>
       </c>
       <c r="M671" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672">
@@ -28008,7 +28008,7 @@
         <v>0.5156609338507619</v>
       </c>
       <c r="M672" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673">
@@ -28049,7 +28049,7 @@
         <v>-0.5296964177713945</v>
       </c>
       <c r="M673" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -28131,7 +28131,7 @@
         <v>-2.468066689739059</v>
       </c>
       <c r="M675" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="676">
@@ -28172,7 +28172,7 @@
         <v>2.722479536225209</v>
       </c>
       <c r="M676" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
@@ -28295,7 +28295,7 @@
         <v>-0.3486385290486251</v>
       </c>
       <c r="M679" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
@@ -28336,7 +28336,7 @@
         <v>0.5639191624964767</v>
       </c>
       <c r="M680" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -28377,7 +28377,7 @@
         <v>-1.292169195969781</v>
       </c>
       <c r="M681" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="682">
@@ -28418,7 +28418,7 @@
         <v>-0.9584047121509927</v>
       </c>
       <c r="M682" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -28500,7 +28500,7 @@
         <v>-2.192867564026967</v>
       </c>
       <c r="M684" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685">
@@ -28623,7 +28623,7 @@
         <v>-1.375453319069016</v>
       </c>
       <c r="M687" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="688">
@@ -28705,7 +28705,7 @@
         <v>-0.2967135624445172</v>
       </c>
       <c r="M689" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -28746,7 +28746,7 @@
         <v>-1.395256023241684</v>
       </c>
       <c r="M690" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="691">
@@ -28787,7 +28787,7 @@
         <v>-0.8849038262020147</v>
       </c>
       <c r="M691" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="692">
@@ -28828,7 +28828,7 @@
         <v>1.374335803831825</v>
       </c>
       <c r="M692" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693">
@@ -28910,7 +28910,7 @@
         <v>-1.642643246109793</v>
       </c>
       <c r="M694" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695">
@@ -28951,7 +28951,7 @@
         <v>0.07357726809645242</v>
       </c>
       <c r="M695" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696">
@@ -28992,7 +28992,7 @@
         <v>0.3087254442988358</v>
       </c>
       <c r="M696" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
@@ -29033,7 +29033,7 @@
         <v>0.1537121023125642</v>
       </c>
       <c r="M697" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="698">
@@ -29074,7 +29074,7 @@
         <v>0.2005377217828333</v>
       </c>
       <c r="M698" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699">
@@ -29115,7 +29115,7 @@
         <v>-0.3300276826768103</v>
       </c>
       <c r="M699" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -29156,7 +29156,7 @@
         <v>-0.3608147077561367</v>
       </c>
       <c r="M700" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701">
@@ -29197,7 +29197,7 @@
         <v>-0.1627313199372409</v>
       </c>
       <c r="M701" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -29238,7 +29238,7 @@
         <v>-1.373881430769233</v>
       </c>
       <c r="M702" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="703">
@@ -29361,7 +29361,7 @@
         <v>0.5477006014664066</v>
       </c>
       <c r="M705" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -29402,7 +29402,7 @@
         <v>-0.152405326427453</v>
       </c>
       <c r="M706" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707">
@@ -29443,7 +29443,7 @@
         <v>-0.3510075333663065</v>
       </c>
       <c r="M707" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
@@ -29484,7 +29484,7 @@
         <v>2.634954777803521</v>
       </c>
       <c r="M708" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -29525,7 +29525,7 @@
         <v>-1.657421921952812</v>
       </c>
       <c r="M709" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="710">
@@ -29607,7 +29607,7 @@
         <v>-1.475110353142236</v>
       </c>
       <c r="M711" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712">
@@ -29648,7 +29648,7 @@
         <v>-1.187193917040282</v>
       </c>
       <c r="M712" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="713">
@@ -29689,7 +29689,7 @@
         <v>0.488595052657874</v>
       </c>
       <c r="M713" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
@@ -29771,7 +29771,7 @@
         <v>-1.682104035607409</v>
       </c>
       <c r="M715" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="716">
@@ -29812,7 +29812,7 @@
         <v>0.7292143768694358</v>
       </c>
       <c r="M716" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
@@ -29853,7 +29853,7 @@
         <v>-0.6599381712834342</v>
       </c>
       <c r="M717" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="718">
@@ -29894,7 +29894,7 @@
         <v>-1.001131245514449</v>
       </c>
       <c r="M718" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="719">
@@ -29935,7 +29935,7 @@
         <v>2.299530439936937</v>
       </c>
       <c r="M719" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -29976,7 +29976,7 @@
         <v>-2.121294852831302</v>
       </c>
       <c r="M720" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="721">
@@ -30017,7 +30017,7 @@
         <v>1.206142770340609</v>
       </c>
       <c r="M721" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
@@ -30058,7 +30058,7 @@
         <v>0.315629806524331</v>
       </c>
       <c r="M722" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
@@ -30099,7 +30099,7 @@
         <v>-2.014438950831654</v>
       </c>
       <c r="M723" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="724">
@@ -30140,7 +30140,7 @@
         <v>-0.002163900483894524</v>
       </c>
       <c r="M724" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725">
@@ -30181,7 +30181,7 @@
         <v>0.07693979077498155</v>
       </c>
       <c r="M725" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726">
@@ -30222,7 +30222,7 @@
         <v>0.9162261481352427</v>
       </c>
       <c r="M726" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
@@ -30263,7 +30263,7 @@
         <v>-0.2526374687698629</v>
       </c>
       <c r="M727" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
@@ -30304,7 +30304,7 @@
         <v>-1.595823071297469</v>
       </c>
       <c r="M728" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="729">
@@ -30427,7 +30427,7 @@
         <v>0.009755366183668982</v>
       </c>
       <c r="M731" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732">
@@ -30468,7 +30468,7 @@
         <v>0.2698391730756217</v>
       </c>
       <c r="M732" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733">
@@ -30509,7 +30509,7 @@
         <v>1.422314798081247</v>
       </c>
       <c r="M733" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734">
@@ -30550,7 +30550,7 @@
         <v>-1.305821820899316</v>
       </c>
       <c r="M734" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735">
@@ -30591,7 +30591,7 @@
         <v>-1.328738383012432</v>
       </c>
       <c r="M735" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736">
@@ -30632,7 +30632,7 @@
         <v>1.469919000772483</v>
       </c>
       <c r="M736" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737">
@@ -30673,7 +30673,7 @@
         <v>-0.4938587975486314</v>
       </c>
       <c r="M737" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738">
@@ -30714,7 +30714,7 @@
         <v>-1.421314571095931</v>
       </c>
       <c r="M738" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739">
@@ -30755,7 +30755,7 @@
         <v>0.883446734485643</v>
       </c>
       <c r="M739" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740">
@@ -30796,7 +30796,7 @@
         <v>-1.305950067627548</v>
       </c>
       <c r="M740" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741">
@@ -30837,7 +30837,7 @@
         <v>0.8364038249899335</v>
       </c>
       <c r="M741" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742">
@@ -30878,7 +30878,7 @@
         <v>0.9045980144541174</v>
       </c>
       <c r="M742" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743">
@@ -30919,7 +30919,7 @@
         <v>-0.6496308653594794</v>
       </c>
       <c r="M743" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744">
@@ -30960,7 +30960,7 @@
         <v>-0.944408244668039</v>
       </c>
       <c r="M744" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745">
@@ -31042,7 +31042,7 @@
         <v>0.4731497318198736</v>
       </c>
       <c r="M746" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747">
@@ -31083,7 +31083,7 @@
         <v>1.332315533870001</v>
       </c>
       <c r="M747" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748">
@@ -31206,7 +31206,7 @@
         <v>-0.09167617645716218</v>
       </c>
       <c r="M750" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="751">
@@ -31329,7 +31329,7 @@
         <v>-1.352036125196431</v>
       </c>
       <c r="M753" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754">
@@ -31370,7 +31370,7 @@
         <v>-0.2346983052800802</v>
       </c>
       <c r="M754" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755">
@@ -31411,7 +31411,7 @@
         <v>-2.651233349287482</v>
       </c>
       <c r="M755" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="756">
@@ -31493,7 +31493,7 @@
         <v>-1.03965874113282</v>
       </c>
       <c r="M757" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -31616,7 +31616,7 @@
         <v>-0.09327033150710051</v>
       </c>
       <c r="M760" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
@@ -31698,7 +31698,7 @@
         <v>-1.053856450520047</v>
       </c>
       <c r="M762" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763">
@@ -31780,7 +31780,7 @@
         <v>1.822522854323168</v>
       </c>
       <c r="M764" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765">
@@ -31821,7 +31821,7 @@
         <v>1.211187355315701</v>
       </c>
       <c r="M765" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="766">
@@ -31862,7 +31862,7 @@
         <v>-0.6741350278690261</v>
       </c>
       <c r="M766" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767">
@@ -31903,7 +31903,7 @@
         <v>0.03381633525246778</v>
       </c>
       <c r="M767" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768">
@@ -31985,7 +31985,7 @@
         <v>-1.027488612944908</v>
       </c>
       <c r="M769" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
